--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="216">
   <si>
     <t>No</t>
   </si>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -167,10 +163,6 @@
   </si>
   <si>
     <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -803,6 +795,117 @@
   </si>
   <si>
     <t>闪电组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1074,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,9 +1215,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,9 +1268,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1184,9 +1281,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1583,29 +1677,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="17" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="16" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="16" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="9" style="17"/>
-    <col min="14" max="14" width="11.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="19" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="48.5" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="16" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="15" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="16" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="15" customWidth="1"/>
+    <col min="11" max="12" width="11.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="9" style="16"/>
+    <col min="14" max="14" width="11.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="16" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="18" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="48.5" style="16" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
@@ -1670,2147 +1764,2389 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="29">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>42459</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="27">
+      <c r="H2" s="26">
         <v>42459</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="15"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="14"/>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
+      <c r="L3" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>193</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="15"/>
+      <c r="R3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="14"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>42459</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <v>42459</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="26" t="s">
+      <c r="I4" s="25"/>
+      <c r="J4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="28"/>
+      <c r="L4" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M4" s="27"/>
+      <c r="N4" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="15"/>
+      <c r="S4" s="14"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>42459</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>42459</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="28" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" s="15"/>
+      <c r="L5" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S5" s="14"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>42459</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>42459</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="28"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S6" s="15"/>
+      <c r="R6" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="S6" s="14"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>42459</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>42459</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="15"/>
+      <c r="R7" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="14"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <v>42459</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>42459</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" s="26" t="s">
+      <c r="I8" s="25"/>
+      <c r="J8" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
+      <c r="L8" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="30" t="s">
+      <c r="R8" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="S8" s="14"/>
+      <c r="T8" s="10"/>
+    </row>
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="S8" s="15"/>
-      <c r="T8" s="10"/>
-    </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>42459</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>42459</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K9" s="26" t="s">
+      <c r="I9" s="25"/>
+      <c r="J9" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="L9" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N9" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="15"/>
+      <c r="R9" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="S9" s="14"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>42459</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>42459</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="26" t="s">
+      <c r="J10" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="L10" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N10" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S10" s="15"/>
+      <c r="R10" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="S10" s="14"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>42459</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>42459</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K11" s="26" t="s">
+      <c r="J11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="L11" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N11" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S11" s="15"/>
+      <c r="R11" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="14"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>42459</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>42459</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="26" t="s">
+      <c r="J12" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="L12" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="15"/>
+      <c r="R12" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="S12" s="14"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>42459</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H13" s="26">
         <v>42459</v>
       </c>
       <c r="I13" s="12"/>
-      <c r="J13" s="14" t="s">
-        <v>65</v>
+      <c r="J13" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="31"/>
+      <c r="L13" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="N13" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="27"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="15"/>
+      <c r="R13" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="S13" s="14"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>42459</v>
       </c>
-      <c r="G14" s="27" t="s">
+      <c r="G14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="26">
         <v>42459</v>
       </c>
       <c r="I14" s="12"/>
-      <c r="J14" s="14" t="s">
-        <v>65</v>
+      <c r="J14" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="L14" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N14" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="15"/>
+      <c r="R14" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="S14" s="14"/>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>42457</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="26">
+        <v>42457</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N15" s="26">
+        <v>42457</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="28">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="27">
+      <c r="F16" s="26">
         <v>42457</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="29">
+      <c r="G16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="H16" s="26">
         <v>42457</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="27">
-        <v>42457</v>
-      </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
+      <c r="J16" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="27"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="27"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
+      <c r="R16" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <v>42457</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="26">
         <v>42457</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="4"/>
+      <c r="J17" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N17" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>205</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
+      <c r="R17" s="33" t="s">
+        <v>210</v>
+      </c>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>42457</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="27">
+      <c r="G18" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="26">
         <v>42457</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="4"/>
+      <c r="J18" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N18" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
+      <c r="R18" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="26">
+        <v>42457</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="26">
+        <v>42457</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="27">
-        <v>42457</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="27">
-        <v>42457</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M19" s="7"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="4"/>
+      <c r="K19" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="33" t="s">
+        <v>210</v>
+      </c>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>42457</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="27">
+      <c r="G20" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="26">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="4"/>
+      <c r="J20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="N20" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="33" t="s">
+        <v>210</v>
+      </c>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>42457</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="27">
+      <c r="G21" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="26">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="K21" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="4"/>
+      <c r="J21" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="N21" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
+      <c r="R21" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="27">
+        <v>162</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="26">
         <v>42457</v>
       </c>
-      <c r="G22" s="35" t="s">
+      <c r="G22" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L22" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="4"/>
+      <c r="J22" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N22" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
+      <c r="R22" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="27">
+        <v>163</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="26">
         <v>42457</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H23" s="27">
+      <c r="G23" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="26">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L23" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="7"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="4"/>
+      <c r="J23" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N23" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>214</v>
+      </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="26">
+        <v>42457</v>
+      </c>
+      <c r="G24" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="27">
+      <c r="H24" s="26">
         <v>42457</v>
       </c>
-      <c r="G24" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="27">
-        <v>42457</v>
-      </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L24" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="M24" s="7"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="4"/>
+      <c r="J24" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="N24" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
+      <c r="R24" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="27">
+        <v>73</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="26">
         <v>42457</v>
       </c>
-      <c r="G25" s="35" t="s">
+      <c r="G25" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>42457</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M25" s="7"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="4"/>
+      <c r="J25" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K25" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N25" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>189</v>
+      </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
+      <c r="R25" s="33" t="s">
+        <v>208</v>
+      </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="27">
+        <v>165</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="26">
         <v>42457</v>
       </c>
-      <c r="G26" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="27">
+      <c r="G26" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="26">
         <v>42457</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L26" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="4"/>
+      <c r="J26" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N26" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
+      <c r="R26" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E27" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="26">
+        <v>42457</v>
+      </c>
+      <c r="G27" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="27">
+      <c r="H27" s="26">
         <v>42457</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="27">
-        <v>42457</v>
-      </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K27" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L27" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="4"/>
+      <c r="J27" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N27" s="26">
+        <v>42460</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
+      <c r="R27" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="29">
+      <c r="A28" s="28">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="27">
+        <v>167</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="26">
         <v>42457</v>
       </c>
-      <c r="G28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="27">
+      <c r="G28" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="26">
         <v>42457</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K28" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L28" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="4"/>
+      <c r="J28" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N28" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
+      <c r="R28" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="27">
+        <v>168</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" s="26">
         <v>42457</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="26">
         <v>42457</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L29" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="4"/>
+      <c r="J29" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N29" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O29" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C30" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>42457</v>
       </c>
-      <c r="G30" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="G30" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="26">
         <v>42457</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L30" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="4"/>
+      <c r="J30" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="N30" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O30" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="R30" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="27">
+        <v>170</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="26">
         <v>42457</v>
       </c>
-      <c r="G31" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="G31" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="26">
         <v>42457</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="L31" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="4"/>
+      <c r="J31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N31" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O31" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
+      <c r="R31" s="33" t="s">
+        <v>29</v>
+      </c>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="26">
+        <v>42457</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="26">
+        <v>42457</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="27">
-        <v>42457</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="27">
-        <v>42457</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="L32" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="M32" s="7"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="4"/>
+      <c r="K32" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="L32" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="M32" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="N32" s="26">
+        <v>42458</v>
+      </c>
+      <c r="O32" s="27" t="s">
+        <v>194</v>
+      </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
+      <c r="R32" s="33" t="s">
+        <v>209</v>
+      </c>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I33" s="25"/>
+      <c r="J33" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="25"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="10"/>
+    </row>
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="28">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I34" s="25"/>
+      <c r="J34" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="K34" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L34" s="25"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="10"/>
+    </row>
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="28">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D33" s="26" t="s">
+      <c r="C35" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E35" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F35" s="26">
         <v>42459</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G35" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="27">
+      <c r="H35" s="26">
         <v>42459</v>
       </c>
-      <c r="I33" s="26"/>
-      <c r="J33" s="28" t="s">
+      <c r="I35" s="25"/>
+      <c r="J35" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="K33" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="L33" s="26"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="29">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="K35" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L35" s="25"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="10"/>
+    </row>
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="28">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C36" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="J36" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K36" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="L36" s="25"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="10"/>
+    </row>
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="28">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I37" s="25"/>
+      <c r="J37" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L37" s="25"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="10"/>
+    </row>
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="28">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I38" s="25"/>
+      <c r="J38" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="10"/>
+    </row>
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="28">
         <v>38</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="26" t="s">
+      <c r="B39" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F39" s="26">
         <v>42459</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G39" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H39" s="26">
         <v>42459</v>
       </c>
-      <c r="I34" s="26"/>
-      <c r="J34" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="29">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="26" t="s">
+      <c r="I39" s="25"/>
+      <c r="J39" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L39" s="25"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="28">
+        <v>39</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I40" s="25"/>
+      <c r="J40" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K40" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L40" s="25"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="28">
+        <v>40</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F41" s="26">
         <v>42459</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G41" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H41" s="26">
         <v>42459</v>
       </c>
-      <c r="I35" s="26"/>
-      <c r="J35" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="K35" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="L35" s="26"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="29">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="26" t="s">
+      <c r="I41" s="25"/>
+      <c r="J41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" s="25"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="28">
+        <v>41</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="27">
+      <c r="F42" s="26">
         <v>42459</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G42" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H42" s="26">
         <v>42459</v>
       </c>
-      <c r="I36" s="26"/>
-      <c r="J36" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="K36" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="L36" s="26"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="10"/>
-    </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="29">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="I42" s="25"/>
+      <c r="J42" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="L42" s="25"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A43" s="28">
+        <v>42</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I43" s="25"/>
+      <c r="J43" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="L43" s="25"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="28">
+        <v>43</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L44" s="25"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="28">
+        <v>44</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="26">
+        <v>42459</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="26">
+        <v>42459</v>
+      </c>
+      <c r="I45" s="25"/>
+      <c r="J45" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="L45" s="25"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="28">
+        <v>45</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="40">
+        <v>42459</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="40">
+        <v>42459</v>
+      </c>
+      <c r="I46" s="39"/>
+      <c r="J46" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K46" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="39"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="44"/>
+    </row>
+    <row r="47" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="28">
+        <v>46</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="40">
+        <v>42459</v>
+      </c>
+      <c r="G47" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="40">
+        <v>42459</v>
+      </c>
+      <c r="I47" s="39"/>
+      <c r="J47" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L47" s="39"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="44"/>
+    </row>
+    <row r="48" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="28">
+        <v>47</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="40">
+        <v>42459</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="40">
+        <v>42459</v>
+      </c>
+      <c r="I48" s="39"/>
+      <c r="J48" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="K48" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" s="39"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="44"/>
+    </row>
+    <row r="49" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="28">
+        <v>48</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="40">
+        <v>42459</v>
+      </c>
+      <c r="G49" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49" s="40">
+        <v>42459</v>
+      </c>
+      <c r="I49" s="39"/>
+      <c r="J49" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="39"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="44"/>
+    </row>
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="28">
+        <v>49</v>
+      </c>
+      <c r="B50" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G37" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I37" s="26"/>
-      <c r="J37" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L37" s="26"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="29">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="C50" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H38" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I38" s="26"/>
-      <c r="J38" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="K38" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L38" s="26"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="29">
-        <v>38</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H39" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I39" s="26"/>
-      <c r="J39" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L39" s="26"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="29">
-        <v>39</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I40" s="26"/>
-      <c r="J40" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="29">
-        <v>40</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I41" s="26"/>
-      <c r="J41" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K41" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="L41" s="26"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="29">
-        <v>41</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K42" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" s="26"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A43" s="29">
-        <v>42</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G43" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I43" s="26"/>
-      <c r="J43" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="L43" s="26"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="29">
-        <v>43</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G44" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="K44" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="L44" s="26"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="10"/>
-    </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="29">
-        <v>44</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="27">
-        <v>42459</v>
-      </c>
-      <c r="G45" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="27">
-        <v>42459</v>
-      </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="K45" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" s="26"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="10"/>
-    </row>
-    <row r="46" spans="1:20" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="29">
-        <v>45</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="43">
-        <v>42459</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="43">
-        <v>42459</v>
-      </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="K46" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L46" s="42"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
-      <c r="R46" s="45"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="47"/>
-    </row>
-    <row r="47" spans="1:20" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="29">
-        <v>46</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="43">
-        <v>42459</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="43">
-        <v>42459</v>
-      </c>
-      <c r="I47" s="42"/>
-      <c r="J47" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="K47" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L47" s="42"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="45"/>
-      <c r="Q47" s="45"/>
-      <c r="R47" s="45"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="47"/>
-    </row>
-    <row r="48" spans="1:20" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="29">
-        <v>47</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="43">
-        <v>42459</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="43">
-        <v>42459</v>
-      </c>
-      <c r="I48" s="42"/>
-      <c r="J48" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="K48" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L48" s="42"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="47"/>
-    </row>
-    <row r="49" spans="1:20" s="48" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="29">
-        <v>48</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="43">
-        <v>42459</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="43">
-        <v>42459</v>
-      </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="K49" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="L49" s="42"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="45"/>
-      <c r="R49" s="45"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="47"/>
-    </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="29">
-        <v>49</v>
-      </c>
-      <c r="B50" s="39" t="s">
+      <c r="E50" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="F50" s="26">
+        <v>42447</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" s="26">
+        <v>42447</v>
+      </c>
+      <c r="I50" s="25"/>
+      <c r="J50" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="28">
+        <v>50</v>
+      </c>
+      <c r="B51" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="F50" s="27">
+      <c r="D51" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="26">
         <v>42447</v>
       </c>
-      <c r="G50" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="H50" s="27">
+      <c r="G51" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="26">
         <v>42447</v>
       </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="K50" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="49"/>
-      <c r="S50" s="15"/>
-      <c r="T50" s="10"/>
-    </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="29">
-        <v>50</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D51" s="26" t="s">
+      <c r="I51" s="25"/>
+      <c r="J51" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E51" s="26" t="s">
+      <c r="K51" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F51" s="27">
-        <v>42447</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="27">
-        <v>42447</v>
-      </c>
-      <c r="I51" s="26"/>
-      <c r="J51" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="K51" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="L51" s="26"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="49"/>
-      <c r="S51" s="15"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="14"/>
       <c r="T51" s="10"/>
     </row>
     <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
       <c r="D52" s="12"/>
@@ -3832,7 +4168,7 @@
       <c r="T52" s="10"/>
     </row>
     <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="18"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
       <c r="D53" s="12"/>
@@ -3854,7 +4190,7 @@
       <c r="T53" s="10"/>
     </row>
     <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="18"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
       <c r="D54" s="12"/>
@@ -3876,7 +4212,7 @@
       <c r="T54" s="10"/>
     </row>
     <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="18"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
       <c r="D55" s="12"/>
@@ -3898,7 +4234,7 @@
       <c r="T55" s="10"/>
     </row>
     <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="18"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="12"/>
@@ -3920,7 +4256,7 @@
       <c r="T56" s="10"/>
     </row>
     <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="18"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
@@ -3942,7 +4278,7 @@
       <c r="T57" s="10"/>
     </row>
     <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="18"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="12"/>
@@ -3964,7 +4300,7 @@
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="18"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="12"/>
@@ -6936,210 +7272,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
@@ -15,12 +15,12 @@
     <sheet name="版本3.1.0 New Features|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="226">
   <si>
     <t>No</t>
   </si>
@@ -906,6 +906,58 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】未推送的转客，应当允许租客注册。如果租客点忘记密码应当提示用户不存在</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC】APP下载页内容更改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客Pc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网接入七陌云服务</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Q组</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1177,7 +1229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,9 +1280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1675,10 +1724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T217"/>
+  <dimension ref="A1:T220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1697,8 +1746,8 @@
     <col min="13" max="13" width="9" style="16"/>
     <col min="14" max="14" width="11.625" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="18" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="17" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="17" customWidth="1"/>
     <col min="19" max="19" width="48.5" style="16" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
@@ -1764,594 +1813,594 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>42459</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>42459</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="26">
+      <c r="M2" s="26"/>
+      <c r="N2" s="25">
         <v>42460</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="29" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>42459</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="25">
         <v>42459</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="27" t="s">
+      <c r="I3" s="24"/>
+      <c r="J3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <v>42460</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="26" t="s">
         <v>193</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>42459</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>42459</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="26">
+      <c r="M4" s="26"/>
+      <c r="N4" s="25">
         <v>42460</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="29" t="s">
+      <c r="R4" s="28" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>42459</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>42459</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="27" t="s">
+      <c r="I5" s="24"/>
+      <c r="J5" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <v>42460</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="34" t="s">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33" t="s">
         <v>196</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <v>42459</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>42459</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="27" t="s">
+      <c r="I6" s="24"/>
+      <c r="J6" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>42460</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="33" t="s">
         <v>196</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>42459</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>42459</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="27" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>42460</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="33" t="s">
         <v>30</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>42459</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>42459</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="27" t="s">
+      <c r="I8" s="24"/>
+      <c r="J8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>42460</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="34" t="s">
+      <c r="R8" s="33" t="s">
         <v>201</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="28">
+      <c r="A9" s="27">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <v>42459</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>42459</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="27" t="s">
+      <c r="I9" s="24"/>
+      <c r="J9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>42460</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="34" t="s">
+      <c r="R9" s="33" t="s">
         <v>201</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="28">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <v>42459</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>42459</v>
       </c>
       <c r="I10" s="12"/>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="25" t="s">
+      <c r="K10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <v>42460</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="33" t="s">
         <v>204</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="28">
+      <c r="A11" s="27">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>42459</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>42459</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="25" t="s">
+      <c r="L11" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>42460</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>205</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="34" t="s">
+      <c r="R11" s="33" t="s">
         <v>30</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="28">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <v>42459</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>42459</v>
       </c>
       <c r="I12" s="12"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="25" t="s">
+      <c r="K12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <v>42460</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="34" t="s">
+      <c r="R12" s="33" t="s">
         <v>204</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="28">
+      <c r="A13" s="27">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>42459</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>42459</v>
       </c>
       <c r="I13" s="12"/>
@@ -2361,49 +2410,49 @@
       <c r="K13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <v>42460</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="27"/>
+      <c r="P13" s="26"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="34" t="s">
+      <c r="R13" s="33" t="s">
         <v>204</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="28">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>42459</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>42459</v>
       </c>
       <c r="I14" s="12"/>
@@ -2413,1806 +2462,1869 @@
       <c r="K14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>42460</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="35" t="s">
+      <c r="R14" s="34" t="s">
         <v>208</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28">
+      <c r="A15" s="27">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>42457</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>42457</v>
       </c>
       <c r="I15" s="6"/>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>42457</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="P15" s="27"/>
+      <c r="P15" s="26"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="33" t="s">
+      <c r="R15" s="32" t="s">
         <v>208</v>
       </c>
       <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="28">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <v>42457</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>42457</v>
       </c>
       <c r="I16" s="6"/>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="K16" s="25" t="s">
+      <c r="K16" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="28">
+      <c r="A17" s="27">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>42457</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>42457</v>
       </c>
       <c r="I17" s="6"/>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>42458</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="26" t="s">
         <v>205</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="32" t="s">
         <v>210</v>
       </c>
       <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="28">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>42457</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>42457</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L18" s="25" t="s">
+      <c r="L18" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <v>42460</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="32" t="s">
         <v>29</v>
       </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="28">
+      <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>42457</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>42457</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L19" s="25" t="s">
+      <c r="L19" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <v>42460</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="32" t="s">
         <v>210</v>
       </c>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="28">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>42457</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="25" t="s">
+      <c r="K20" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L20" s="25" t="s">
+      <c r="L20" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>42460</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="32" t="s">
         <v>210</v>
       </c>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="28">
+      <c r="A21" s="27">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="25">
         <v>42457</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L21" s="25" t="s">
+      <c r="L21" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="25">
         <v>42460</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="28">
+      <c r="A22" s="27">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <v>42457</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="25">
         <v>42460</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="O22" s="26" t="s">
         <v>213</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="32" t="s">
         <v>29</v>
       </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="28">
+      <c r="A23" s="27">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>42457</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="25">
         <v>42460</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="26" t="s">
         <v>214</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="28">
+      <c r="A24" s="27">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <v>42457</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>42457</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L24" s="25" t="s">
+      <c r="L24" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="N24" s="26">
+      <c r="N24" s="25">
         <v>42460</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="32" t="s">
         <v>29</v>
       </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="28">
+      <c r="A25" s="27">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <v>42457</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>42457</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N25" s="26">
+      <c r="N25" s="25">
         <v>42460</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="O25" s="26" t="s">
         <v>189</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="33" t="s">
+      <c r="R25" s="32" t="s">
         <v>208</v>
       </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="28">
+      <c r="A26" s="27">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>42457</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>42457</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="K26" s="25" t="s">
+      <c r="K26" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L26" s="25" t="s">
+      <c r="L26" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>42460</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="26" t="s">
         <v>213</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="28">
+      <c r="A27" s="27">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <v>42457</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <v>42457</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="25">
         <v>42460</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="O27" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="28">
+      <c r="A28" s="27">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="25">
         <v>42457</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="26">
+      <c r="H28" s="25">
         <v>42457</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="25" t="s">
+      <c r="K28" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L28" s="25" t="s">
+      <c r="L28" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="25">
         <v>42458</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="32" t="s">
         <v>215</v>
       </c>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="28">
+      <c r="A29" s="27">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>42457</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>42457</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L29" s="25" t="s">
+      <c r="L29" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="M29" s="27" t="s">
+      <c r="M29" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>42458</v>
       </c>
-      <c r="O29" s="27" t="s">
+      <c r="O29" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="32" t="s">
         <v>215</v>
       </c>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="28">
+      <c r="A30" s="27">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <v>42457</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="25">
         <v>42457</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="L30" s="25" t="s">
+      <c r="L30" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="N30" s="26">
+      <c r="N30" s="25">
         <v>42458</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="26" t="s">
         <v>213</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="28">
+      <c r="A31" s="27">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="E31" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="26">
+      <c r="F31" s="25">
         <v>42457</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="26">
+      <c r="H31" s="25">
         <v>42457</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M31" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N31" s="26">
+      <c r="N31" s="25">
         <v>42458</v>
       </c>
-      <c r="O31" s="27" t="s">
+      <c r="O31" s="26" t="s">
         <v>213</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="32" t="s">
         <v>29</v>
       </c>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A32" s="28">
+      <c r="A32" s="27">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="D32" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>42457</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>42457</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="K32" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="L32" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="M32" s="27" t="s">
+      <c r="K32" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="25">
         <v>42458</v>
       </c>
-      <c r="O32" s="27" t="s">
+      <c r="O32" s="26" t="s">
         <v>194</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="32" t="s">
         <v>209</v>
       </c>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="28">
+    <row r="33" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A33" s="27">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="25">
+        <v>42457</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="25">
+        <v>42457</v>
+      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="M33" s="7"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="4"/>
+    </row>
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="27">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="25">
+        <v>42457</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="H34" s="25">
+        <v>42457</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L34" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="M34" s="7"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="4"/>
+    </row>
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="27">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="25">
+        <v>42457</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="25">
+        <v>42457</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K35" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L35" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="4"/>
+    </row>
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="27">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D36" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F36" s="25">
         <v>42459</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="G36" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H36" s="25">
         <v>42459</v>
       </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="27" t="s">
+      <c r="I36" s="24"/>
+      <c r="J36" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K36" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="L33" s="25"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="10"/>
-    </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="28">
-        <v>33</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F34" s="26">
-        <v>42459</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H34" s="26">
-        <v>42459</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L34" s="25"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
-      <c r="R34" s="37"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="10"/>
-    </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="28">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="26">
-        <v>42459</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="26">
-        <v>42459</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K35" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L35" s="25"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="37"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="10"/>
-    </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="28">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="26">
-        <v>42459</v>
-      </c>
-      <c r="G36" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="26">
-        <v>42459</v>
-      </c>
-      <c r="I36" s="25"/>
-      <c r="J36" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K36" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="L36" s="25"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="37"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
       <c r="S36" s="14"/>
       <c r="T36" s="10"/>
     </row>
     <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="28">
+      <c r="A37" s="27">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="25" t="s">
+      <c r="E37" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="25">
         <v>42459</v>
       </c>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="26">
+      <c r="H37" s="25">
         <v>42459</v>
       </c>
-      <c r="I37" s="25"/>
-      <c r="J37" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="L37" s="25"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="37"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="K37" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L37" s="24"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
       <c r="S37" s="14"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="28">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="27">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="26">
+      <c r="F38" s="25">
         <v>42459</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="26">
+      <c r="H38" s="25">
         <v>42459</v>
       </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="L38" s="25"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="K38" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L38" s="24"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
       <c r="S38" s="14"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="28">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="27">
         <v>38</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E39" s="25" t="s">
+      <c r="B39" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="26">
+      <c r="F39" s="25">
         <v>42459</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="25">
         <v>42459</v>
       </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K39" s="25" t="s">
+      <c r="I39" s="24"/>
+      <c r="J39" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="L39" s="24"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="10"/>
+    </row>
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="27">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="25">
+        <v>42459</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="25">
+        <v>42459</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="K40" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="L39" s="25"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="28">
-        <v>39</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="26">
-        <v>42459</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H40" s="26">
-        <v>42459</v>
-      </c>
-      <c r="I40" s="25"/>
-      <c r="J40" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="K40" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L40" s="25"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
       <c r="S40" s="14"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="28">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="27">
         <v>40</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="25" t="s">
+      <c r="B41" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="25">
         <v>42459</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="25">
         <v>42459</v>
       </c>
-      <c r="I41" s="25"/>
-      <c r="J41" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="L41" s="25"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="K41" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" s="24"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
       <c r="S41" s="14"/>
       <c r="T41" s="10"/>
     </row>
     <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="28">
+      <c r="A42" s="27">
         <v>41</v>
       </c>
-      <c r="B42" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="25" t="s">
+      <c r="B42" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D42" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="25" t="s">
+      <c r="D42" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="26">
+      <c r="F42" s="25">
         <v>42459</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="26">
+      <c r="H42" s="25">
         <v>42459</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="27" t="s">
+      <c r="I42" s="24"/>
+      <c r="J42" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L42" s="24"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="36"/>
+      <c r="S42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="27">
+        <v>42</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="25">
+        <v>42459</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="25">
+        <v>42459</v>
+      </c>
+      <c r="I43" s="24"/>
+      <c r="J43" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="K42" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="L42" s="25"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="37"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A43" s="28">
-        <v>42</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="26">
-        <v>42459</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="26">
-        <v>42459</v>
-      </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="K43" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="L43" s="25"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="37"/>
+      <c r="K43" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="24"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="36"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="36"/>
       <c r="S43" s="14"/>
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="28">
+      <c r="A44" s="27">
         <v>43</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" s="25" t="s">
+      <c r="B44" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="26">
+      <c r="F44" s="25">
         <v>42459</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="G44" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="26">
+      <c r="H44" s="25">
         <v>42459</v>
       </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="K44" s="25" t="s">
+      <c r="I44" s="24"/>
+      <c r="J44" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="K44" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="L44" s="25"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="37"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="36"/>
       <c r="S44" s="14"/>
       <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="28">
+      <c r="A45" s="27">
         <v>44</v>
       </c>
-      <c r="B45" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="25" t="s">
+      <c r="B45" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="26">
+      <c r="F45" s="25">
         <v>42459</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="26">
+      <c r="H45" s="25">
         <v>42459</v>
       </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="K45" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="L45" s="25"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="37"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="37"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L45" s="24"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
       <c r="S45" s="14"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="28">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A46" s="27">
         <v>45</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="25">
+        <v>42459</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="25">
+        <v>42459</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L46" s="24"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="27">
+        <v>46</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="25">
+        <v>42459</v>
+      </c>
+      <c r="G47" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="25">
+        <v>42459</v>
+      </c>
+      <c r="I47" s="24"/>
+      <c r="J47" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L47" s="24"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="27">
+        <v>47</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="25">
+        <v>42459</v>
+      </c>
+      <c r="G48" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="25">
+        <v>42459</v>
+      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L48" s="24"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="36"/>
+      <c r="R48" s="36"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="27">
+        <v>48</v>
+      </c>
+      <c r="B49" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="39" t="s">
+      <c r="C49" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E49" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="40">
+      <c r="F49" s="39">
         <v>42459</v>
       </c>
-      <c r="G46" s="40" t="s">
+      <c r="G49" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="40">
+      <c r="H49" s="39">
         <v>42459</v>
       </c>
-      <c r="I46" s="39"/>
-      <c r="J46" s="27" t="s">
+      <c r="I49" s="38"/>
+      <c r="J49" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K49" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="L46" s="39"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="41"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="42"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="44"/>
-    </row>
-    <row r="47" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="28">
-        <v>46</v>
-      </c>
-      <c r="B47" s="38" t="s">
+      <c r="L49" s="38"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="43"/>
+    </row>
+    <row r="50" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="27">
+        <v>49</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C50" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D50" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E50" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F50" s="39">
         <v>42459</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="G50" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H50" s="39">
         <v>42459</v>
       </c>
-      <c r="I47" s="39"/>
-      <c r="J47" s="41" t="s">
+      <c r="I50" s="38"/>
+      <c r="J50" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K50" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="L47" s="39"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="42"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="42"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="44"/>
-    </row>
-    <row r="48" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="28">
-        <v>47</v>
-      </c>
-      <c r="B48" s="38" t="s">
+      <c r="L50" s="38"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="43"/>
+    </row>
+    <row r="51" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="27">
+        <v>50</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C51" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D51" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="39" t="s">
+      <c r="E51" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="40">
+      <c r="F51" s="39">
         <v>42459</v>
       </c>
-      <c r="G48" s="40" t="s">
+      <c r="G51" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H51" s="39">
         <v>42459</v>
       </c>
-      <c r="I48" s="39"/>
-      <c r="J48" s="41" t="s">
+      <c r="I51" s="38"/>
+      <c r="J51" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="K48" s="39" t="s">
+      <c r="K51" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="L48" s="39"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="44"/>
-    </row>
-    <row r="49" spans="1:20" s="45" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="28">
-        <v>48</v>
-      </c>
-      <c r="B49" s="38" t="s">
+      <c r="L51" s="38"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="43"/>
+    </row>
+    <row r="52" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="27">
+        <v>51</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="39" t="s">
+      <c r="C52" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D52" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="39" t="s">
+      <c r="E52" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F52" s="39">
         <v>42459</v>
       </c>
-      <c r="G49" s="40" t="s">
+      <c r="G52" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="40">
+      <c r="H52" s="39">
         <v>42459</v>
       </c>
-      <c r="I49" s="39"/>
-      <c r="J49" s="41" t="s">
+      <c r="I52" s="38"/>
+      <c r="J52" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K52" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="L49" s="39"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="41"/>
-      <c r="P49" s="42"/>
-      <c r="Q49" s="42"/>
-      <c r="R49" s="42"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="44"/>
-    </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="28">
-        <v>49</v>
-      </c>
-      <c r="B50" s="36" t="s">
+      <c r="L52" s="38"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="43"/>
+    </row>
+    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="27">
+        <v>52</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C53" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D53" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E53" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F53" s="25">
         <v>42447</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G53" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H53" s="25">
         <v>42447</v>
       </c>
-      <c r="I50" s="25"/>
-      <c r="J50" s="27" t="s">
+      <c r="I53" s="24"/>
+      <c r="J53" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K53" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="L50" s="27"/>
-      <c r="M50" s="27"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="10"/>
-    </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="28">
-        <v>50</v>
-      </c>
-      <c r="B51" s="36" t="s">
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="36"/>
+      <c r="Q53" s="36"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="10"/>
+    </row>
+    <row r="54" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="27">
+        <v>53</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C54" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D54" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="E51" s="25" t="s">
+      <c r="E54" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F54" s="25">
         <v>42447</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G54" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H51" s="26">
+      <c r="H54" s="25">
         <v>42447</v>
       </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="27" t="s">
+      <c r="I54" s="24"/>
+      <c r="J54" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="K51" s="25" t="s">
+      <c r="K54" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="L51" s="25"/>
-      <c r="M51" s="27"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="37"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="46"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="10"/>
-    </row>
-    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="10"/>
-    </row>
-    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="10"/>
-    </row>
-    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="4"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="36"/>
+      <c r="Q54" s="36"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="14"/>
       <c r="T54" s="10"/>
     </row>
     <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
       <c r="D55" s="12"/>
@@ -4234,7 +4346,7 @@
       <c r="T55" s="10"/>
     </row>
     <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="17"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
       <c r="D56" s="12"/>
@@ -4256,7 +4368,7 @@
       <c r="T56" s="10"/>
     </row>
     <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="17"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
       <c r="D57" s="12"/>
@@ -4278,7 +4390,7 @@
       <c r="T57" s="10"/>
     </row>
     <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
       <c r="D58" s="12"/>
@@ -4300,7 +4412,7 @@
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="12"/>
@@ -4322,7 +4434,7 @@
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="9"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -4344,7 +4456,7 @@
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="9"/>
+      <c r="A61" s="27"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
       <c r="D61" s="12"/>
@@ -4365,8 +4477,8 @@
       <c r="S61" s="4"/>
       <c r="T61" s="10"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A62" s="27"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
       <c r="D62" s="12"/>
@@ -4385,9 +4497,10 @@
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
-    </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="7"/>
+      <c r="T62" s="10"/>
+    </row>
+    <row r="63" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="9"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
       <c r="D63" s="12"/>
@@ -4406,9 +4519,10 @@
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
-    </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="7"/>
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="9"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="12"/>
@@ -4427,6 +4541,7 @@
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
+      <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
@@ -5189,7 +5304,7 @@
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="7"/>
+      <c r="E101" s="12"/>
       <c r="F101" s="5"/>
       <c r="G101" s="7"/>
       <c r="H101" s="5"/>
@@ -5210,7 +5325,7 @@
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
       <c r="D102" s="12"/>
-      <c r="E102" s="7"/>
+      <c r="E102" s="12"/>
       <c r="F102" s="5"/>
       <c r="G102" s="7"/>
       <c r="H102" s="5"/>
@@ -5231,7 +5346,7 @@
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="7"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="5"/>
       <c r="G103" s="7"/>
       <c r="H103" s="5"/>
@@ -5310,11 +5425,11 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
+      <c r="D107" s="12"/>
       <c r="E107" s="7"/>
       <c r="F107" s="5"/>
       <c r="G107" s="7"/>
@@ -5331,11 +5446,11 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
+      <c r="D108" s="12"/>
       <c r="E108" s="7"/>
       <c r="F108" s="5"/>
       <c r="G108" s="7"/>
@@ -5352,11 +5467,11 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
+      <c r="D109" s="12"/>
       <c r="E109" s="7"/>
       <c r="F109" s="5"/>
       <c r="G109" s="7"/>
@@ -6357,6 +6472,7 @@
       <c r="O156" s="4"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
+      <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.15">
@@ -6377,6 +6493,7 @@
       <c r="O157" s="4"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
+      <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.15">
@@ -6397,6 +6514,7 @@
       <c r="O158" s="4"/>
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.15">
@@ -6595,6 +6713,8 @@
       <c r="M168" s="7"/>
       <c r="N168" s="5"/>
       <c r="O168" s="4"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
       <c r="S168" s="4"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.15">
@@ -6613,6 +6733,8 @@
       <c r="M169" s="7"/>
       <c r="N169" s="5"/>
       <c r="O169" s="4"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
       <c r="S169" s="4"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.15">
@@ -6631,6 +6753,8 @@
       <c r="M170" s="7"/>
       <c r="N170" s="5"/>
       <c r="O170" s="4"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
       <c r="S170" s="4"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.15">
@@ -7193,18 +7317,63 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="5"/>
+      <c r="G202" s="7"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="6"/>
+      <c r="J202" s="7"/>
+      <c r="K202" s="7"/>
+      <c r="L202" s="7"/>
+      <c r="M202" s="7"/>
       <c r="N202" s="5"/>
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="5"/>
+      <c r="G203" s="7"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="6"/>
+      <c r="J203" s="7"/>
+      <c r="K203" s="7"/>
+      <c r="L203" s="7"/>
+      <c r="M203" s="7"/>
+      <c r="N203" s="5"/>
+      <c r="O203" s="4"/>
+      <c r="S203" s="4"/>
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="7"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="6"/>
+      <c r="J204" s="7"/>
+      <c r="K204" s="7"/>
+      <c r="L204" s="7"/>
+      <c r="M204" s="7"/>
+      <c r="N204" s="5"/>
+      <c r="O204" s="4"/>
+      <c r="S204" s="4"/>
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="4"/>
+      <c r="S205" s="4"/>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
@@ -7241,6 +7410,15 @@
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="7"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="7"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:S18">
@@ -7272,210 +7450,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="228">
   <si>
     <t>No</t>
   </si>
@@ -949,15 +949,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网微信二维码更换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>李健</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>周蓉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李健</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1724,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T220"/>
+  <dimension ref="A1:T221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3376,7 +3384,7 @@
         <v>221</v>
       </c>
       <c r="L32" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M32" s="26" t="s">
         <v>203</v>
@@ -3484,8 +3492,8 @@
       <c r="A35" s="27">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>220</v>
+      <c r="B35" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>32</v>
@@ -3507,13 +3515,13 @@
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="26" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K35" s="24" t="s">
         <v>147</v>
       </c>
       <c r="L35" s="24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="5"/>
@@ -3523,60 +3531,61 @@
       <c r="R35" s="7"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="27">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>171</v>
+      <c r="B36" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F36" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>28</v>
+        <v>42457</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>15</v>
       </c>
       <c r="H36" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I36" s="24"/>
+        <v>42457</v>
+      </c>
+      <c r="I36" s="6"/>
       <c r="J36" s="26" t="s">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="K36" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="L36" s="24"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="10"/>
+        <v>147</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="M36" s="7"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="27">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>28</v>
@@ -3592,10 +3601,10 @@
       </c>
       <c r="I37" s="24"/>
       <c r="J37" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K37" s="24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L37" s="24"/>
       <c r="M37" s="26"/>
@@ -3612,13 +3621,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>28</v>
@@ -3634,7 +3643,7 @@
       </c>
       <c r="I38" s="24"/>
       <c r="J38" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K38" s="24" t="s">
         <v>150</v>
@@ -3654,13 +3663,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>28</v>
@@ -3676,7 +3685,7 @@
       </c>
       <c r="I39" s="24"/>
       <c r="J39" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K39" s="24" t="s">
         <v>150</v>
@@ -3696,10 +3705,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>117</v>
@@ -3718,10 +3727,10 @@
       </c>
       <c r="I40" s="24"/>
       <c r="J40" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="L40" s="24"/>
       <c r="M40" s="26"/>
@@ -3733,18 +3742,18 @@
       <c r="S40" s="14"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="27">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>28</v>
@@ -3760,7 +3769,7 @@
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K41" s="24" t="s">
         <v>77</v>
@@ -3775,18 +3784,18 @@
       <c r="S41" s="14"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A42" s="27">
         <v>41</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>79</v>
+      <c r="B42" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>28</v>
@@ -3802,7 +3811,7 @@
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42" s="24" t="s">
         <v>77</v>
@@ -3814,9 +3823,7 @@
       <c r="P42" s="36"/>
       <c r="Q42" s="36"/>
       <c r="R42" s="36"/>
-      <c r="S42" s="14" t="s">
-        <v>80</v>
-      </c>
+      <c r="S42" s="14"/>
       <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -3824,13 +3831,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>28</v>
@@ -3846,10 +3853,10 @@
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K43" s="24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L43" s="24"/>
       <c r="M43" s="26"/>
@@ -3858,7 +3865,9 @@
       <c r="P43" s="36"/>
       <c r="Q43" s="36"/>
       <c r="R43" s="36"/>
-      <c r="S43" s="14"/>
+      <c r="S43" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
@@ -3866,13 +3875,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D44" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>28</v>
@@ -3888,7 +3897,7 @@
       </c>
       <c r="I44" s="24"/>
       <c r="J44" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K44" s="24" t="s">
         <v>82</v>
@@ -3908,13 +3917,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>28</v>
@@ -3930,10 +3939,10 @@
       </c>
       <c r="I45" s="24"/>
       <c r="J45" s="26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K45" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L45" s="24"/>
       <c r="M45" s="26"/>
@@ -3945,18 +3954,18 @@
       <c r="S45" s="14"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A46" s="27">
         <v>45</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="24" t="s">
         <v>28</v>
@@ -3975,7 +3984,7 @@
         <v>143</v>
       </c>
       <c r="K46" s="24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L46" s="24"/>
       <c r="M46" s="26"/>
@@ -3987,12 +3996,12 @@
       <c r="S46" s="14"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A47" s="27">
         <v>46</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>87</v>
@@ -4014,10 +4023,10 @@
       </c>
       <c r="I47" s="24"/>
       <c r="J47" s="26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K47" s="24" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L47" s="24"/>
       <c r="M47" s="26"/>
@@ -4034,13 +4043,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="24" t="s">
         <v>28</v>
@@ -4056,10 +4065,10 @@
       </c>
       <c r="I48" s="24"/>
       <c r="J48" s="26" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K48" s="24" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L48" s="24"/>
       <c r="M48" s="26"/>
@@ -4071,60 +4080,60 @@
       <c r="S48" s="14"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A49" s="27">
         <v>48</v>
       </c>
-      <c r="B49" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="38" t="s">
-        <v>92</v>
+      <c r="B49" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>78</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="25">
         <v>42459</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G49" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="25">
         <v>42459</v>
       </c>
-      <c r="I49" s="38"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="K49" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L49" s="38"/>
-      <c r="M49" s="40"/>
-      <c r="N49" s="39"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="42"/>
-      <c r="T49" s="43"/>
+        <v>142</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="L49" s="24"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="10"/>
     </row>
     <row r="50" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A50" s="27">
         <v>49</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C50" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E50" s="38" t="s">
         <v>28</v>
@@ -4139,8 +4148,8 @@
         <v>42459</v>
       </c>
       <c r="I50" s="38"/>
-      <c r="J50" s="40" t="s">
-        <v>95</v>
+      <c r="J50" s="26" t="s">
+        <v>146</v>
       </c>
       <c r="K50" s="38" t="s">
         <v>93</v>
@@ -4160,13 +4169,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C51" s="38" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E51" s="38" t="s">
         <v>28</v>
@@ -4182,7 +4191,7 @@
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K51" s="38" t="s">
         <v>93</v>
@@ -4202,13 +4211,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C52" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D52" s="38" t="s">
-        <v>99</v>
+      <c r="D52" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="E52" s="38" t="s">
         <v>28</v>
@@ -4224,7 +4233,7 @@
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K52" s="38" t="s">
         <v>93</v>
@@ -4239,81 +4248,81 @@
       <c r="S52" s="42"/>
       <c r="T52" s="43"/>
     </row>
-    <row r="53" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A53" s="27">
         <v>52</v>
       </c>
-      <c r="B53" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="25">
-        <v>42447</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H53" s="25">
-        <v>42447</v>
-      </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="K53" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="36"/>
-      <c r="Q53" s="36"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="10"/>
-    </row>
-    <row r="54" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="39">
+        <v>42459</v>
+      </c>
+      <c r="G53" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="39">
+        <v>42459</v>
+      </c>
+      <c r="I53" s="38"/>
+      <c r="J53" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K53" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" s="38"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="43"/>
+    </row>
+    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A54" s="27">
         <v>53</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F54" s="25">
         <v>42447</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H54" s="25">
         <v>42447</v>
       </c>
       <c r="I54" s="24"/>
       <c r="J54" s="26" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="K54" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="L54" s="24"/>
+        <v>182</v>
+      </c>
+      <c r="L54" s="26"/>
       <c r="M54" s="26"/>
       <c r="N54" s="25"/>
       <c r="O54" s="26"/>
@@ -4323,26 +4332,46 @@
       <c r="S54" s="14"/>
       <c r="T54" s="10"/>
     </row>
-    <row r="55" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="27"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="4"/>
+    <row r="55" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="27">
+        <v>54</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="25">
+        <v>42447</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="25">
+        <v>42447</v>
+      </c>
+      <c r="I55" s="24"/>
+      <c r="J55" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K55" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L55" s="24"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="36"/>
+      <c r="Q55" s="36"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="14"/>
       <c r="T55" s="10"/>
     </row>
     <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -4500,7 +4529,7 @@
       <c r="T62" s="10"/>
     </row>
     <row r="63" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="9"/>
+      <c r="A63" s="27"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
       <c r="D63" s="12"/>
@@ -4543,8 +4572,8 @@
       <c r="S64" s="4"/>
       <c r="T64" s="10"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="7"/>
+    <row r="65" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="9"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12"/>
@@ -4563,8 +4592,9 @@
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
-    </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -4585,7 +4615,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -4606,7 +4636,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -4627,7 +4657,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -4648,7 +4678,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -4669,7 +4699,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -4690,7 +4720,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -4711,7 +4741,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -4732,7 +4762,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -4753,7 +4783,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -4774,7 +4804,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -4795,7 +4825,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -4816,7 +4846,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -4837,7 +4867,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -4858,7 +4888,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -5367,7 +5397,7 @@
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="7"/>
+      <c r="E104" s="12"/>
       <c r="F104" s="5"/>
       <c r="G104" s="7"/>
       <c r="H104" s="5"/>
@@ -5488,11 +5518,11 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
+      <c r="D110" s="12"/>
       <c r="E110" s="7"/>
       <c r="F110" s="5"/>
       <c r="G110" s="7"/>
@@ -6535,6 +6565,7 @@
       <c r="O159" s="4"/>
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.15">
@@ -6773,6 +6804,8 @@
       <c r="M171" s="7"/>
       <c r="N171" s="5"/>
       <c r="O171" s="4"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="7"/>
       <c r="S171" s="4"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.15">
@@ -7371,12 +7404,27 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="7"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="7"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="6"/>
+      <c r="J205" s="7"/>
+      <c r="K205" s="7"/>
+      <c r="L205" s="7"/>
+      <c r="M205" s="7"/>
       <c r="N205" s="5"/>
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
+      <c r="N206" s="5"/>
+      <c r="O206" s="4"/>
+      <c r="S206" s="4"/>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
@@ -7419,6 +7467,9 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A220" s="7"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:S18">

--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="237">
   <si>
     <t>No</t>
   </si>
@@ -142,18 +142,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>极光组</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -162,103 +154,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>子帐号管理和登录功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs上款项到位、终审、放款按钮，只能点击一次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东APP、PC和BS修改房东属性记录业务日志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东新老账务余额不一致时，提示冻结无法体现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC登录优化：密码连续输错3次需要输入验证码，连续输错6次会锁定账号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子账号业务操作日志</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>子账号消息显示和发送</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业主管理优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补录租约优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP财务管理详情页显示内容修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>子账号业务退款审批</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东业主管理添加业主不显示</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>房东端支付密码校验切到新账务体系</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>房东PC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>茅寰寰、田东兴</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>韩美娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩美娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>田东兴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔斌、韩美娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩美娟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>崔斌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩美娟</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -410,10 +322,6 @@
     <t>田志敏</t>
   </si>
   <si>
-    <t>极光组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>New Features</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -422,27 +330,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Fix Bug</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>New Features</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fix Bug</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC&amp;App</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>BS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -798,10 +694,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>施超、纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -810,8 +702,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>施超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过</t>
@@ -819,61 +726,6 @@
   </si>
   <si>
     <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超</t>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>施超、纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪维玉</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -966,6 +818,190 @@
   </si>
   <si>
     <t>李健</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号消息显示和发送</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子帐号管理和登录功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主管理优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东业主管理添加业主不显示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东新老账务余额不一致时，提示冻结无法体现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC&amp;App</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌、韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC登录优化：密码连续输错3次需要输入验证码，连续输错6次会锁定账号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP、PC和BS修改房东属性记录业务日志</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超、纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补录租约优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs上款项到位、终审、放款按钮，只能点击一次</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩美娟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>纪维玉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP财务管理详情页显示内容修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东提现如果支付密码错误或绑定银行卡信息错误，给出明确提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东在BS端注册时直接设置登录密码并发短信通知房东，后续如绑定银行卡则仅发送短信通知而不重置密码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买回成功后买回列表页面显示"买回日期"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1237,7 +1273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,9 +1312,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1732,31 +1765,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T221"/>
+  <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.25" style="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="15" customWidth="1"/>
-    <col min="4" max="4" width="22.75" style="15" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="15" customWidth="1"/>
-    <col min="11" max="12" width="11.875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="9" style="16"/>
-    <col min="14" max="14" width="11.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" style="16" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="17" customWidth="1"/>
-    <col min="17" max="18" width="17.625" style="17" customWidth="1"/>
-    <col min="19" max="19" width="48.5" style="16" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="44.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="22.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="14" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="14" customWidth="1"/>
+    <col min="11" max="12" width="11.875" style="14" customWidth="1"/>
+    <col min="13" max="13" width="9" style="15"/>
+    <col min="14" max="14" width="11.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" style="15" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="16" customWidth="1"/>
+    <col min="17" max="18" width="17.625" style="16" customWidth="1"/>
+    <col min="19" max="19" width="48.5" style="15" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
@@ -1821,1750 +1854,1781 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="25">
+      <c r="F2" s="24">
         <v>42459</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="25">
+      <c r="H2" s="24">
         <v>42459</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="25">
+      <c r="I2" s="23"/>
+      <c r="J2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N2" s="24">
         <v>42460</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="28" t="s">
+      <c r="O2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="14"/>
+      <c r="S2" s="13"/>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="25">
+        <v>37</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F3" s="24">
         <v>42459</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="24">
         <v>42459</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="M3" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N3" s="25">
+      <c r="I3" s="23"/>
+      <c r="J3" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="24">
         <v>42460</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>193</v>
+      <c r="O3" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="14"/>
+      <c r="S3" s="13"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="25">
+        <v>197</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" s="24">
         <v>42459</v>
       </c>
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="24">
         <v>42459</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="25">
+      <c r="I4" s="23"/>
+      <c r="J4" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N4" s="24">
         <v>42460</v>
       </c>
-      <c r="O4" s="26" t="s">
-        <v>194</v>
+      <c r="O4" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="28" t="s">
+      <c r="R4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="S4" s="14"/>
+      <c r="S4" s="13"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S5" s="13"/>
+      <c r="T5" s="10"/>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F6" s="24">
         <v>42459</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H6" s="24">
         <v>42459</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="24" t="s">
+      <c r="I6" s="23"/>
+      <c r="J6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N5" s="25">
+      <c r="L6" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N6" s="24">
         <v>42460</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="S5" s="14"/>
-      <c r="T5" s="10"/>
-    </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="27">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="N6" s="25">
-        <v>42460</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>189</v>
+      <c r="O6" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="S6" s="14"/>
+      <c r="R6" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S6" s="13"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="E7" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="24">
         <v>42459</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="24">
         <v>42459</v>
       </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N7" s="25">
+      <c r="I7" s="23"/>
+      <c r="J7" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N7" s="24">
         <v>42460</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>189</v>
+      <c r="O7" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="14"/>
+      <c r="R7" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="13"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>42459</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>42459</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="N8" s="25">
+      <c r="I8" s="23"/>
+      <c r="J8" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="24">
         <v>42460</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>194</v>
+      <c r="O8" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="S8" s="14"/>
+      <c r="R8" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S8" s="13"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="25">
+        <v>39</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F9" s="24">
         <v>42459</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="24">
         <v>42459</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="I9" s="23"/>
+      <c r="J9" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N9" s="24">
         <v>42460</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>189</v>
+      <c r="O9" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="33" t="s">
+      <c r="R9" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="S9" s="14"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="27">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N10" s="25">
+      <c r="L10" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N10" s="24">
         <v>42460</v>
       </c>
-      <c r="O10" s="26" t="s">
-        <v>189</v>
+      <c r="O10" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="S10" s="14"/>
+      <c r="R10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="13"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="25">
+        <v>222</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="24">
         <v>42459</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>42459</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N11" s="25">
+      <c r="I11" s="23"/>
+      <c r="J11" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N11" s="24">
         <v>42460</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>205</v>
+      <c r="O11" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="S11" s="14"/>
+      <c r="R11" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S11" s="13"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="25">
+        <v>225</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="24">
         <v>42459</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>42459</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N12" s="25">
+      <c r="I12" s="23"/>
+      <c r="J12" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" s="24">
         <v>42460</v>
       </c>
-      <c r="O12" s="26" t="s">
-        <v>194</v>
+      <c r="O12" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="S12" s="14"/>
+      <c r="R12" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S12" s="13"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="B13" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F13" s="24">
         <v>42459</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>42459</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="N13" s="25">
+      <c r="I13" s="23"/>
+      <c r="J13" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N13" s="24">
         <v>42460</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="26">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="10"/>
-    </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="27">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>42459</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>42459</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N14" s="25">
+      <c r="I14" s="23"/>
+      <c r="J14" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N14" s="24">
         <v>42460</v>
       </c>
-      <c r="O14" s="26" t="s">
-        <v>189</v>
+      <c r="O14" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="S14" s="14"/>
+      <c r="R14" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="S14" s="13"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N15" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="S15" s="13"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="F15" s="25">
-        <v>42457</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="25">
-        <v>42457</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N15" s="25">
-        <v>42457</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="S15" s="4"/>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="27">
-        <v>15</v>
-      </c>
       <c r="B16" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="25">
-        <v>42457</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="25">
-        <v>42457</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
+        <v>233</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="N16" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>217</v>
+      </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="S16" s="4"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="27">
+      <c r="R16" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="25">
-        <v>42457</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="25">
-        <v>42457</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="N17" s="25">
-        <v>42458</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>205</v>
+      <c r="D17" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="N17" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>217</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="S17" s="4"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="27">
+      <c r="R17" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="24">
+        <v>42457</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="24">
+        <v>42457</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" s="24">
+        <v>42457</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="24">
+        <v>42457</v>
+      </c>
+      <c r="G19" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="25">
+      <c r="H19" s="24">
         <v>42457</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="25">
-        <v>42457</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N18" s="25">
-        <v>42460</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="4"/>
-    </row>
-    <row r="19" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="27">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="25">
-        <v>42457</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="25">
-        <v>42457</v>
-      </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N19" s="25">
-        <v>42460</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>194</v>
-      </c>
+      <c r="J19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M19" s="25"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="25"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="32" t="s">
-        <v>210</v>
+      <c r="R19" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="S19" s="4"/>
     </row>
-    <row r="20" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A20" s="27">
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>42457</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="25">
+      <c r="G20" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="24">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="N20" s="25">
-        <v>42460</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>189</v>
+      <c r="J20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="N20" s="24">
+        <v>42458</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="32" t="s">
-        <v>210</v>
+      <c r="R20" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="S20" s="4"/>
     </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="27">
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>42457</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="25">
+      <c r="G21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="24">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="N21" s="25">
+      <c r="J21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N21" s="24">
         <v>42460</v>
       </c>
-      <c r="O21" s="26" t="s">
-        <v>194</v>
+      <c r="O21" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="32" t="s">
-        <v>209</v>
+      <c r="R21" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="S21" s="4"/>
     </row>
-    <row r="22" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A22" s="27">
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="25">
+        <v>133</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="24">
         <v>42457</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="25">
+      <c r="G22" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="24">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="N22" s="25">
+      <c r="J22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N22" s="24">
         <v>42460</v>
       </c>
-      <c r="O22" s="26" t="s">
-        <v>213</v>
+      <c r="O22" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="32" t="s">
-        <v>29</v>
+      <c r="R22" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="S22" s="4"/>
     </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="27">
+    <row r="23" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="25">
+        <v>134</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="24">
         <v>42457</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="25">
+      <c r="G23" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="24">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N23" s="25">
+      <c r="J23" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="N23" s="24">
         <v>42460</v>
       </c>
-      <c r="O23" s="26" t="s">
-        <v>214</v>
+      <c r="O23" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="32" t="s">
-        <v>209</v>
+      <c r="R23" s="31" t="s">
+        <v>173</v>
       </c>
       <c r="S23" s="4"/>
     </row>
-    <row r="24" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A24" s="27">
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="25">
+        <v>135</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="24">
         <v>42457</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="25">
+      <c r="G24" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="24">
         <v>42457</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="N24" s="25">
+      <c r="J24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="N24" s="24">
         <v>42460</v>
       </c>
-      <c r="O24" s="26" t="s">
-        <v>194</v>
+      <c r="O24" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="32" t="s">
-        <v>29</v>
+      <c r="R24" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="S24" s="4"/>
     </row>
-    <row r="25" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="27">
+    <row r="25" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="25">
+        <v>136</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="24">
         <v>42457</v>
       </c>
-      <c r="G25" s="32" t="s">
+      <c r="G25" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>42457</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M25" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N25" s="25">
+      <c r="J25" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="N25" s="24">
         <v>42460</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>189</v>
+      <c r="O25" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="32" t="s">
-        <v>208</v>
+      <c r="R25" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="S25" s="4"/>
     </row>
-    <row r="26" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A26" s="27">
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="25">
+        <v>137</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="24">
         <v>42457</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="25">
+      <c r="G26" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="24">
         <v>42457</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N26" s="25">
+      <c r="J26" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N26" s="24">
         <v>42460</v>
       </c>
-      <c r="O26" s="26" t="s">
-        <v>213</v>
+      <c r="O26" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="32" t="s">
-        <v>209</v>
+      <c r="R26" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="S26" s="4"/>
     </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="27">
+    <row r="27" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="25">
+        <v>138</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="24">
         <v>42457</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="25">
+      <c r="G27" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="24">
         <v>42457</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N27" s="25">
+      <c r="J27" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="24">
         <v>42460</v>
       </c>
-      <c r="O27" s="26" t="s">
-        <v>194</v>
+      <c r="O27" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="32" t="s">
-        <v>209</v>
+      <c r="R27" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="27">
+    <row r="28" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="25">
+        <v>51</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="24">
         <v>42457</v>
       </c>
-      <c r="G28" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="25">
+      <c r="G28" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="24">
         <v>42457</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M28" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="N28" s="25">
-        <v>42458</v>
-      </c>
-      <c r="O28" s="26" t="s">
-        <v>194</v>
+      <c r="J28" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>162</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="32" t="s">
-        <v>215</v>
+      <c r="R28" s="31" t="s">
+        <v>171</v>
       </c>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="27">
+    <row r="29" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="25">
+        <v>139</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="24">
         <v>42457</v>
       </c>
-      <c r="G29" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="25">
+      <c r="G29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="24">
         <v>42457</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="M29" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N29" s="25">
-        <v>42458</v>
-      </c>
-      <c r="O29" s="26" t="s">
-        <v>194</v>
+      <c r="J29" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="32" t="s">
-        <v>215</v>
+      <c r="R29" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="27">
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="24">
+        <v>42457</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="24">
+        <v>42457</v>
+      </c>
+      <c r="I30" s="6"/>
+      <c r="J30" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="25">
-        <v>42457</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="25">
-        <v>42457</v>
-      </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="N30" s="25">
-        <v>42458</v>
-      </c>
-      <c r="O30" s="26" t="s">
-        <v>213</v>
+      <c r="N30" s="24">
+        <v>42460</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="32" t="s">
-        <v>209</v>
+      <c r="R30" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="S30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="27">
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="25">
+        <v>141</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="24">
         <v>42457</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="25">
+      <c r="G31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="24">
         <v>42457</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="M31" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N31" s="25">
+      <c r="J31" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="N31" s="24">
         <v>42458</v>
       </c>
-      <c r="O31" s="26" t="s">
-        <v>213</v>
+      <c r="O31" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="32" t="s">
-        <v>29</v>
+      <c r="R31" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="S31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="33" x14ac:dyDescent="0.15">
-      <c r="A32" s="27">
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" s="25">
+        <v>142</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="24">
         <v>42457</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="25">
+      <c r="G32" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="24">
         <v>42457</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>221</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="M32" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="N32" s="25">
+      <c r="J32" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="K32" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L32" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="24">
         <v>42458</v>
       </c>
-      <c r="O32" s="26" t="s">
-        <v>194</v>
+      <c r="O32" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="32" t="s">
-        <v>209</v>
+      <c r="R32" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="S32" s="4"/>
     </row>
-    <row r="33" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A33" s="27">
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="24">
         <v>42457</v>
       </c>
-      <c r="G33" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="25">
+      <c r="G33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="24">
         <v>42457</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M33" s="7"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="4"/>
+      <c r="J33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="24">
+        <v>42458</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>176</v>
+      </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="25">
+        <v>144</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="24">
         <v>42457</v>
       </c>
-      <c r="G34" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="H34" s="25">
+      <c r="G34" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="24">
         <v>42457</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K34" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M34" s="7"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="4"/>
+      <c r="J34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="K34" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N34" s="24">
+        <v>42458</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>176</v>
+      </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="31" t="s">
+        <v>29</v>
+      </c>
       <c r="S34" s="4"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="27">
+    <row r="35" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="25">
+        <v>52</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="24">
         <v>42457</v>
       </c>
-      <c r="G35" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="25">
+      <c r="G35" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="24">
         <v>42457</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="K35" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L35" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="M35" s="7"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="4"/>
+      <c r="J35" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="N35" s="24">
+        <v>42458</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>165</v>
+      </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="31" t="s">
+        <v>172</v>
+      </c>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="27">
+    <row r="36" spans="1:20" ht="33" x14ac:dyDescent="0.15">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="24" t="s">
+      <c r="B36" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="24">
         <v>42457</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="24">
         <v>42457</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="K36" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="L36" s="24" t="s">
-        <v>226</v>
+      <c r="J36" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="5"/>
@@ -3574,874 +3638,937 @@
       <c r="R36" s="7"/>
       <c r="S36" s="4"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="27">
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="24">
+        <v>42457</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="H37" s="24">
+        <v>42457</v>
+      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K37" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="M37" s="7"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="4"/>
+    </row>
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="26">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="24">
+        <v>42457</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="24">
+        <v>42457</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="4"/>
+    </row>
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="26">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="24">
+        <v>42457</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="24">
+        <v>42457</v>
+      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="M39" s="7"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="4"/>
+    </row>
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A40" s="26">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I40" s="23"/>
+      <c r="J40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="L40" s="23"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="10"/>
+    </row>
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="26">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I41" s="23"/>
+      <c r="J41" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L41" s="23"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="10"/>
+    </row>
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A42" s="26">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I42" s="23"/>
+      <c r="J42" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="K42" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L42" s="23"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="10"/>
+    </row>
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="26">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I43" s="23"/>
+      <c r="J43" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="K43" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" s="23"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="10"/>
+    </row>
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A44" s="26">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I44" s="23"/>
+      <c r="J44" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="23"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="10"/>
+    </row>
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A45" s="26">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="23"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="10"/>
+    </row>
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="26">
+        <v>45</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I46" s="23"/>
+      <c r="J46" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="24" t="s">
+      <c r="K46" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="10"/>
+    </row>
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="26">
+        <v>46</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F47" s="24">
         <v>42459</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G47" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H47" s="24">
         <v>42459</v>
       </c>
-      <c r="I37" s="24"/>
-      <c r="J37" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="24"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="10"/>
-    </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="27">
-        <v>37</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" s="24" t="s">
+      <c r="I47" s="23"/>
+      <c r="J47" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="K47" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L47" s="23"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="10"/>
+    </row>
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="26">
+        <v>47</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F48" s="24">
         <v>42459</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G48" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H48" s="24">
         <v>42459</v>
       </c>
-      <c r="I38" s="24"/>
-      <c r="J38" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L38" s="24"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="10"/>
-    </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="27">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="24" t="s">
+      <c r="I48" s="23"/>
+      <c r="J48" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="K48" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L48" s="23"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="10"/>
+    </row>
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="26">
+        <v>48</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F49" s="24">
         <v>42459</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G49" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H49" s="24">
         <v>42459</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="K39" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L39" s="24"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="10"/>
-    </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="27">
-        <v>39</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="24" t="s">
+      <c r="I49" s="23"/>
+      <c r="J49" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="24" t="s">
+      <c r="K49" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="10"/>
+    </row>
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A50" s="26">
+        <v>49</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F50" s="24">
         <v>42459</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G50" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H50" s="24">
         <v>42459</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="K40" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="L40" s="24"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="10"/>
-    </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="27">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="24" t="s">
+      <c r="I50" s="23"/>
+      <c r="J50" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="K50" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L50" s="23"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="10"/>
+    </row>
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="26">
+        <v>50</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F51" s="24">
         <v>42459</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G51" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H51" s="24">
         <v>42459</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="K41" s="24" t="s">
+      <c r="I51" s="23"/>
+      <c r="J51" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="L51" s="23"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="10"/>
+    </row>
+    <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="26">
+        <v>51</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="24">
+        <v>42459</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="24">
+        <v>42459</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="23"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="10"/>
+    </row>
+    <row r="53" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="26">
+        <v>52</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="38">
+        <v>42459</v>
+      </c>
+      <c r="G53" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="38">
+        <v>42459</v>
+      </c>
+      <c r="I53" s="37"/>
+      <c r="J53" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="K53" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="37"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="42"/>
+    </row>
+    <row r="54" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="26">
+        <v>53</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="38">
+        <v>42459</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="38">
+        <v>42459</v>
+      </c>
+      <c r="I54" s="37"/>
+      <c r="J54" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="37"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="42"/>
+    </row>
+    <row r="55" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="26">
+        <v>54</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="38">
+        <v>42459</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H55" s="38">
+        <v>42459</v>
+      </c>
+      <c r="I55" s="37"/>
+      <c r="J55" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="K55" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="37"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="42"/>
+    </row>
+    <row r="56" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="26">
+        <v>55</v>
+      </c>
+      <c r="B56" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="10"/>
-    </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="27">
-        <v>41</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E42" s="24" t="s">
+      <c r="E56" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F56" s="38">
         <v>42459</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G56" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H56" s="38">
         <v>42459</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="K42" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L42" s="24"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="36"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="10"/>
-    </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="27">
-        <v>42</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H43" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K43" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L43" s="24"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="36"/>
-      <c r="Q43" s="36"/>
-      <c r="R43" s="36"/>
-      <c r="S43" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="T43" s="10"/>
-    </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="27">
-        <v>43</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G44" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K44" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L44" s="24"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="10"/>
-    </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="27">
-        <v>44</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F45" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="K45" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L45" s="24"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="36"/>
-      <c r="Q45" s="36"/>
-      <c r="R45" s="36"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="10"/>
-    </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="27">
-        <v>45</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F46" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G46" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K46" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="L46" s="24"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="10"/>
-    </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A47" s="27">
-        <v>46</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G47" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I47" s="24"/>
-      <c r="J47" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="K47" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="L47" s="24"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="10"/>
-    </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="27">
-        <v>47</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G48" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I48" s="24"/>
-      <c r="J48" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="K48" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="L48" s="24"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="10"/>
-    </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="27">
-        <v>48</v>
-      </c>
-      <c r="B49" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="24" t="s">
+      <c r="I56" s="37"/>
+      <c r="J56" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49" s="25">
-        <v>42459</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49" s="25">
-        <v>42459</v>
-      </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="K49" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="L49" s="24"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="36"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="10"/>
-    </row>
-    <row r="50" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="27">
-        <v>49</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F50" s="39">
-        <v>42459</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" s="39">
-        <v>42459</v>
-      </c>
-      <c r="I50" s="38"/>
-      <c r="J50" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L50" s="38"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="42"/>
-      <c r="T50" s="43"/>
-    </row>
-    <row r="51" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="27">
-        <v>50</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="39">
-        <v>42459</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51" s="39">
-        <v>42459</v>
-      </c>
-      <c r="I51" s="38"/>
-      <c r="J51" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="K51" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L51" s="38"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="39"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="43"/>
-    </row>
-    <row r="52" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="27">
-        <v>51</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C52" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F52" s="39">
-        <v>42459</v>
-      </c>
-      <c r="G52" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" s="39">
-        <v>42459</v>
-      </c>
-      <c r="I52" s="38"/>
-      <c r="J52" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="K52" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L52" s="38"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="41"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="42"/>
-      <c r="T52" s="43"/>
-    </row>
-    <row r="53" spans="1:20" s="44" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="27">
-        <v>52</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F53" s="39">
-        <v>42459</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="39">
-        <v>42459</v>
-      </c>
-      <c r="I53" s="38"/>
-      <c r="J53" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="K53" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="L53" s="38"/>
-      <c r="M53" s="40"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="41"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="42"/>
-      <c r="T53" s="43"/>
-    </row>
-    <row r="54" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="27">
-        <v>53</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" s="24" t="s">
+      <c r="K56" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56" s="37"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="42"/>
+    </row>
+    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="26">
+        <v>56</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="F54" s="25">
+      <c r="D57" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" s="24">
         <v>42447</v>
       </c>
-      <c r="G54" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H54" s="25">
+      <c r="G57" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="24">
         <v>42447</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="36"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="10"/>
-    </row>
-    <row r="55" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="27">
-        <v>54</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="24" t="s">
+      <c r="I57" s="23"/>
+      <c r="J57" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="35"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="10"/>
+    </row>
+    <row r="58" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="26">
+        <v>57</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D55" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="F55" s="25">
+      <c r="D58" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="24">
         <v>42447</v>
       </c>
-      <c r="G55" s="25" t="s">
+      <c r="G58" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="25">
+      <c r="H58" s="24">
         <v>42447</v>
       </c>
-      <c r="I55" s="24"/>
-      <c r="J55" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="L55" s="24"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="36"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="10"/>
-    </row>
-    <row r="56" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A56" s="27"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="10"/>
-    </row>
-    <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A57" s="27"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="10"/>
-    </row>
-    <row r="58" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A58" s="27"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="4"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="K58" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="L58" s="23"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="35"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="13"/>
       <c r="T58" s="10"/>
     </row>
     <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="27"/>
+      <c r="A59" s="26"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
       <c r="D59" s="12"/>
@@ -4463,7 +4590,7 @@
       <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="27"/>
+      <c r="A60" s="26"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -4485,7 +4612,7 @@
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="27"/>
+      <c r="A61" s="26"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
       <c r="D61" s="12"/>
@@ -4507,7 +4634,7 @@
       <c r="T61" s="10"/>
     </row>
     <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="27"/>
+      <c r="A62" s="26"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
       <c r="D62" s="12"/>
@@ -4529,7 +4656,7 @@
       <c r="T62" s="10"/>
     </row>
     <row r="63" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="27"/>
+      <c r="A63" s="26"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
       <c r="D63" s="12"/>
@@ -4551,7 +4678,7 @@
       <c r="T63" s="10"/>
     </row>
     <row r="64" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="9"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="12"/>
@@ -4573,7 +4700,7 @@
       <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="9"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12"/>
@@ -4594,8 +4721,8 @@
       <c r="S65" s="4"/>
       <c r="T65" s="10"/>
     </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="7"/>
+    <row r="66" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A66" s="26"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
       <c r="D66" s="12"/>
@@ -4614,9 +4741,10 @@
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
-    </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="7"/>
+      <c r="T66" s="10"/>
+    </row>
+    <row r="67" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A67" s="9"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
       <c r="D67" s="12"/>
@@ -4635,9 +4763,10 @@
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
-    </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A68" s="7"/>
+      <c r="T67" s="10"/>
+    </row>
+    <row r="68" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="9"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
       <c r="D68" s="12"/>
@@ -4656,6 +4785,7 @@
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
+      <c r="T68" s="10"/>
     </row>
     <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
@@ -5418,7 +5548,7 @@
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="12"/>
       <c r="F105" s="5"/>
       <c r="G105" s="7"/>
       <c r="H105" s="5"/>
@@ -5439,7 +5569,7 @@
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="7"/>
+      <c r="E106" s="12"/>
       <c r="F106" s="5"/>
       <c r="G106" s="7"/>
       <c r="H106" s="5"/>
@@ -5460,7 +5590,7 @@
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="7"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="5"/>
       <c r="G107" s="7"/>
       <c r="H107" s="5"/>
@@ -5539,11 +5669,11 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="7"/>
       <c r="F111" s="5"/>
       <c r="G111" s="7"/>
@@ -5560,11 +5690,11 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
+      <c r="D112" s="12"/>
       <c r="E112" s="7"/>
       <c r="F112" s="5"/>
       <c r="G112" s="7"/>
@@ -5581,11 +5711,11 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
+      <c r="D113" s="12"/>
       <c r="E113" s="7"/>
       <c r="F113" s="5"/>
       <c r="G113" s="7"/>
@@ -6586,6 +6716,7 @@
       <c r="O160" s="4"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.15">
@@ -6606,6 +6737,7 @@
       <c r="O161" s="4"/>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
       <c r="S161" s="4"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.15">
@@ -6626,6 +6758,7 @@
       <c r="O162" s="4"/>
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
       <c r="S162" s="4"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.15">
@@ -6824,6 +6957,8 @@
       <c r="M172" s="7"/>
       <c r="N172" s="5"/>
       <c r="O172" s="4"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="7"/>
       <c r="S172" s="4"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.15">
@@ -6842,6 +6977,8 @@
       <c r="M173" s="7"/>
       <c r="N173" s="5"/>
       <c r="O173" s="4"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="7"/>
       <c r="S173" s="4"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.15">
@@ -6860,6 +6997,8 @@
       <c r="M174" s="7"/>
       <c r="N174" s="5"/>
       <c r="O174" s="4"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="7"/>
       <c r="S174" s="4"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.15">
@@ -7422,54 +7561,108 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="7"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="5"/>
+      <c r="G206" s="7"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="6"/>
+      <c r="J206" s="7"/>
+      <c r="K206" s="7"/>
+      <c r="L206" s="7"/>
+      <c r="M206" s="7"/>
       <c r="N206" s="5"/>
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="7"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="7"/>
+      <c r="K207" s="7"/>
+      <c r="L207" s="7"/>
+      <c r="M207" s="7"/>
+      <c r="N207" s="5"/>
+      <c r="O207" s="4"/>
+      <c r="S207" s="4"/>
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B208" s="4"/>
+      <c r="C208" s="7"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="7"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="7"/>
+      <c r="K208" s="7"/>
+      <c r="L208" s="7"/>
+      <c r="M208" s="7"/>
+      <c r="N208" s="5"/>
+      <c r="O208" s="4"/>
+      <c r="S208" s="4"/>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="N209" s="5"/>
+      <c r="O209" s="4"/>
+      <c r="S209" s="4"/>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="7"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="7"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A218" s="7"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A219" s="7"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A221" s="7"/>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A222" s="7"/>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A223" s="7"/>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A224" s="7"/>
     </row>
   </sheetData>
   <sortState ref="A2:S18">
@@ -7501,210 +7694,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="241">
   <si>
     <t>No</t>
   </si>
@@ -1002,6 +1002,22 @@
   </si>
   <si>
     <t>买回成功后买回列表页面显示"买回日期"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐燕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.03.31</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1767,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4515,10 +4531,18 @@
       <c r="K57" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="25"/>
+      <c r="L57" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M57" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="N57" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O57" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="P57" s="35"/>
       <c r="Q57" s="35"/>
       <c r="R57" s="44"/>
@@ -4557,10 +4581,18 @@
       <c r="K58" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="L58" s="23"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="25"/>
+      <c r="L58" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="N58" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O58" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="P58" s="35"/>
       <c r="Q58" s="35"/>
       <c r="R58" s="44"/>

--- a/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
+++ b/VersionRecords/Version 3.1.0 20160331/V3.1.0( release backlog ).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitDoc\Mogo_Doc\VersionRecords\Version 3.1.0 20160331\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.0 New Features|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="249">
   <si>
     <t>No</t>
   </si>
@@ -1019,6 +1019,37 @@
   <si>
     <t>2016.03.31</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】修复预定单失效时对应的账单未做失效出来导致房东端做财务报表统计时都进行了统计的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预定单失效时对应的账单未做失效出来导致房东端做财务报表统计时都进行了统计</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效的预定单所对应的未支付的账单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本修复，上线时执行脚本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1289,7 +1320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,9 +1379,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1423,6 +1451,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1783,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I46" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1870,1780 +1904,1780 @@
       </c>
     </row>
     <row r="2" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <v>42459</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <v>42459</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="23">
         <v>42460</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="27" t="s">
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="26" t="s">
         <v>29</v>
       </c>
       <c r="S2" s="13"/>
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>42459</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>42459</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <v>42460</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="26" t="s">
         <v>29</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="10"/>
     </row>
     <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>42459</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <v>42459</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="N4" s="24">
+      <c r="N4" s="23">
         <v>42460</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="27" t="s">
+      <c r="R4" s="26" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="13"/>
       <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="26">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>42459</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <v>42459</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>42460</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="32" t="s">
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S5" s="13"/>
       <c r="T5" s="10"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="26">
+      <c r="A6" s="25">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>42459</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <v>42459</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="25" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="23">
         <v>42460</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="24" t="s">
         <v>208</v>
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="32" t="s">
+      <c r="R6" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S6" s="13"/>
       <c r="T6" s="10"/>
     </row>
     <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="26">
+      <c r="A7" s="25">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>42459</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>42459</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="23">
         <v>42460</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="32" t="s">
+      <c r="R7" s="31" t="s">
         <v>212</v>
       </c>
       <c r="S7" s="13"/>
       <c r="T7" s="10"/>
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="26">
+      <c r="A8" s="25">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>42459</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <v>42459</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <v>42460</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="32" t="s">
+      <c r="R8" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S8" s="13"/>
       <c r="T8" s="10"/>
     </row>
     <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="26">
+      <c r="A9" s="25">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>42459</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>42459</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="25" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <v>42460</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
-      <c r="R9" s="32" t="s">
+      <c r="R9" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S9" s="13"/>
       <c r="T9" s="10"/>
     </row>
     <row r="10" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="26">
+      <c r="A10" s="25">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>42459</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <v>42459</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N10" s="24">
+      <c r="N10" s="23">
         <v>42460</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
-      <c r="R10" s="32" t="s">
+      <c r="R10" s="31" t="s">
         <v>30</v>
       </c>
       <c r="S10" s="13"/>
       <c r="T10" s="10"/>
     </row>
     <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="26">
+      <c r="A11" s="25">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>42459</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>42459</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="22"/>
+      <c r="J11" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="M11" s="25" t="s">
+      <c r="M11" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="23">
         <v>42460</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
-      <c r="R11" s="32" t="s">
+      <c r="R11" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S11" s="13"/>
       <c r="T11" s="10"/>
     </row>
     <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>42459</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>42459</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="25" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L12" s="23" t="s">
+      <c r="L12" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N12" s="24">
+      <c r="N12" s="23">
         <v>42460</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
-      <c r="R12" s="32" t="s">
+      <c r="R12" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S12" s="13"/>
       <c r="T12" s="10"/>
     </row>
     <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="26">
+      <c r="A13" s="25">
         <v>12</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>42459</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <v>42459</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="25" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="23">
         <v>42460</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="P13" s="25"/>
+      <c r="P13" s="24"/>
       <c r="Q13" s="7"/>
-      <c r="R13" s="32" t="s">
+      <c r="R13" s="31" t="s">
         <v>205</v>
       </c>
       <c r="S13" s="13"/>
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="26">
+      <c r="A14" s="25">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>42459</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <v>42459</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="22"/>
+      <c r="J14" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="K14" s="23" t="s">
+      <c r="K14" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L14" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="M14" s="25" t="s">
+      <c r="M14" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N14" s="24">
+      <c r="N14" s="23">
         <v>42460</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="33" t="s">
+      <c r="R14" s="32" t="s">
         <v>231</v>
       </c>
       <c r="S14" s="13"/>
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A15" s="26">
+      <c r="A15" s="25">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>42459</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>42459</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="25" t="s">
+      <c r="M15" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N15" s="24">
+      <c r="N15" s="23">
         <v>42460</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="33" t="s">
+      <c r="R15" s="32" t="s">
         <v>231</v>
       </c>
       <c r="S15" s="13"/>
       <c r="T15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A16" s="26">
+      <c r="A16" s="25">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>42459</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>42459</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="25" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="23" t="s">
+      <c r="K16" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L16" s="23" t="s">
+      <c r="L16" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="M16" s="25" t="s">
+      <c r="M16" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="N16" s="24">
+      <c r="N16" s="23">
         <v>42460</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="32" t="s">
         <v>235</v>
       </c>
       <c r="S16" s="13"/>
       <c r="T16" s="10"/>
     </row>
     <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="26">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>42459</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <v>42459</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="22"/>
+      <c r="J17" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="23" t="s">
+      <c r="L17" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="M17" s="25" t="s">
+      <c r="M17" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="23">
         <v>42460</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="24" t="s">
         <v>217</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="32" t="s">
         <v>231</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="10"/>
     </row>
     <row r="18" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="26">
+      <c r="A18" s="25">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>42457</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <v>42457</v>
       </c>
       <c r="I18" s="6"/>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="25" t="s">
+      <c r="M18" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N18" s="24">
+      <c r="N18" s="23">
         <v>42457</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="P18" s="25"/>
+      <c r="P18" s="24"/>
       <c r="Q18" s="7"/>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="30" t="s">
         <v>171</v>
       </c>
       <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="26">
+      <c r="A19" s="25">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>42457</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <v>42457</v>
       </c>
       <c r="I19" s="6"/>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L19" s="23" t="s">
+      <c r="L19" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="24"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="26">
+      <c r="A20" s="25">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>42457</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <v>42457</v>
       </c>
       <c r="I20" s="6"/>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L20" s="23" t="s">
+      <c r="L20" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="N20" s="24">
+      <c r="N20" s="23">
         <v>42458</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="24" t="s">
         <v>170</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="30" t="s">
         <v>173</v>
       </c>
       <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="26">
+      <c r="A21" s="25">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>42457</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <v>42457</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N21" s="24">
+      <c r="N21" s="23">
         <v>42460</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="30" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="26">
+      <c r="A22" s="25">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>42457</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <v>42457</v>
       </c>
       <c r="I22" s="6"/>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M22" s="25" t="s">
+      <c r="M22" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N22" s="24">
+      <c r="N22" s="23">
         <v>42460</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
-      <c r="R22" s="31" t="s">
+      <c r="R22" s="30" t="s">
         <v>173</v>
       </c>
       <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>42457</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <v>42457</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L23" s="23" t="s">
+      <c r="L23" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="N23" s="24">
+      <c r="N23" s="23">
         <v>42460</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="31" t="s">
+      <c r="R23" s="30" t="s">
         <v>173</v>
       </c>
       <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="26">
+      <c r="A24" s="25">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>42457</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <v>42457</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L24" s="23" t="s">
+      <c r="L24" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="N24" s="24">
+      <c r="N24" s="23">
         <v>42460</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
-      <c r="R24" s="31" t="s">
+      <c r="R24" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A25" s="26">
+      <c r="A25" s="25">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>42457</v>
       </c>
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <v>42457</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L25" s="23" t="s">
+      <c r="L25" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="N25" s="24">
+      <c r="N25" s="23">
         <v>42460</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="24" t="s">
         <v>176</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
-      <c r="R25" s="31" t="s">
+      <c r="R25" s="30" t="s">
         <v>29</v>
       </c>
       <c r="S25" s="4"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="26">
+      <c r="A26" s="25">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>42457</v>
       </c>
-      <c r="G26" s="31" t="s">
+      <c r="G26" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <v>42457</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L26" s="23" t="s">
+      <c r="L26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="23">
         <v>42460</v>
       </c>
-      <c r="O26" s="25" t="s">
+      <c r="O26" s="24" t="s">
         <v>177</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
-      <c r="R26" s="31" t="s">
+      <c r="R26" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A27" s="26">
+      <c r="A27" s="25">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>42457</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G27" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="23">
         <v>42457</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="25" t="s">
+      <c r="J27" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="24">
+      <c r="N27" s="23">
         <v>42460</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="31" t="s">
+      <c r="R27" s="30" t="s">
         <v>29</v>
       </c>
       <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A28" s="26">
+      <c r="A28" s="25">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>42457</v>
       </c>
-      <c r="G28" s="31" t="s">
+      <c r="G28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="23">
         <v>42457</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="23">
         <v>42460</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="24" t="s">
         <v>162</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="31" t="s">
+      <c r="R28" s="30" t="s">
         <v>171</v>
       </c>
       <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A29" s="26">
+      <c r="A29" s="25">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>42457</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <v>42457</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="23" t="s">
+      <c r="K29" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="23">
         <v>42460</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="24" t="s">
         <v>176</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="31" t="s">
+      <c r="R29" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="26">
+      <c r="A30" s="25">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>42457</v>
       </c>
-      <c r="G30" s="31" t="s">
+      <c r="G30" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <v>42457</v>
       </c>
       <c r="I30" s="6"/>
-      <c r="J30" s="25" t="s">
+      <c r="J30" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K30" s="23" t="s">
+      <c r="K30" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="23">
         <v>42460</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="31" t="s">
+      <c r="R30" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S30" s="4"/>
     </row>
     <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="26">
+      <c r="A31" s="25">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>42457</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G31" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <v>42457</v>
       </c>
       <c r="I31" s="6"/>
-      <c r="J31" s="25" t="s">
+      <c r="J31" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="23" t="s">
+      <c r="K31" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="23">
         <v>42458</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
-      <c r="R31" s="31" t="s">
+      <c r="R31" s="30" t="s">
         <v>178</v>
       </c>
       <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>42457</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="G32" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <v>42457</v>
       </c>
       <c r="I32" s="6"/>
-      <c r="J32" s="25" t="s">
+      <c r="J32" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="23" t="s">
+      <c r="K32" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L32" s="23" t="s">
+      <c r="L32" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="23">
         <v>42458</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
-      <c r="R32" s="31" t="s">
+      <c r="R32" s="30" t="s">
         <v>178</v>
       </c>
       <c r="S32" s="4"/>
     </row>
     <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>42457</v>
       </c>
-      <c r="G33" s="31" t="s">
+      <c r="G33" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="23">
         <v>42457</v>
       </c>
       <c r="I33" s="6"/>
-      <c r="J33" s="25" t="s">
+      <c r="J33" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="23" t="s">
+      <c r="K33" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="L33" s="23" t="s">
+      <c r="L33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M33" s="25" t="s">
+      <c r="M33" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N33" s="24">
+      <c r="N33" s="23">
         <v>42458</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="24" t="s">
         <v>176</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="31" t="s">
+      <c r="R33" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S33" s="4"/>
     </row>
     <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="26">
+      <c r="A34" s="25">
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>42457</v>
       </c>
-      <c r="G34" s="31" t="s">
+      <c r="G34" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="23">
         <v>42457</v>
       </c>
       <c r="I34" s="6"/>
-      <c r="J34" s="25" t="s">
+      <c r="J34" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="L34" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="M34" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N34" s="24">
+      <c r="N34" s="23">
         <v>42458</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="24" t="s">
         <v>176</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="31" t="s">
+      <c r="R34" s="30" t="s">
         <v>29</v>
       </c>
       <c r="S34" s="4"/>
     </row>
     <row r="35" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A35" s="26">
+      <c r="A35" s="25">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>42457</v>
       </c>
-      <c r="G35" s="31" t="s">
+      <c r="G35" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="23">
         <v>42457</v>
       </c>
       <c r="I35" s="6"/>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="K35" s="23" t="s">
+      <c r="K35" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="L35" s="23" t="s">
+      <c r="L35" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="M35" s="25" t="s">
+      <c r="M35" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N35" s="23">
         <v>42458</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="24" t="s">
         <v>165</v>
       </c>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="31" t="s">
+      <c r="R35" s="30" t="s">
         <v>172</v>
       </c>
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:20" ht="33" x14ac:dyDescent="0.15">
-      <c r="A36" s="26">
+      <c r="A36" s="25">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="23">
         <v>42457</v>
       </c>
-      <c r="G36" s="31" t="s">
+      <c r="G36" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="23">
         <v>42457</v>
       </c>
       <c r="I36" s="6"/>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K36" s="23" t="s">
+      <c r="K36" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L36" s="23" t="s">
+      <c r="L36" s="22" t="s">
         <v>127</v>
       </c>
       <c r="M36" s="7"/>
@@ -3655,38 +3689,38 @@
       <c r="S36" s="4"/>
     </row>
     <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="24">
+      <c r="F37" s="23">
         <v>42457</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="23">
         <v>42457</v>
       </c>
       <c r="I37" s="6"/>
-      <c r="J37" s="25" t="s">
+      <c r="J37" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K37" s="23" t="s">
+      <c r="K37" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="23" t="s">
+      <c r="L37" s="22" t="s">
         <v>127</v>
       </c>
       <c r="M37" s="7"/>
@@ -3698,38 +3732,38 @@
       <c r="S37" s="4"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="26">
+      <c r="A38" s="25">
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="23">
         <v>42457</v>
       </c>
-      <c r="G38" s="31" t="s">
+      <c r="G38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <v>42457</v>
       </c>
       <c r="I38" s="6"/>
-      <c r="J38" s="25" t="s">
+      <c r="J38" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="K38" s="23" t="s">
+      <c r="K38" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L38" s="23" t="s">
+      <c r="L38" s="22" t="s">
         <v>189</v>
       </c>
       <c r="M38" s="7"/>
@@ -3741,38 +3775,38 @@
       <c r="S38" s="4"/>
     </row>
     <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="26">
+      <c r="A39" s="25">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="23">
         <v>42457</v>
       </c>
-      <c r="G39" s="31" t="s">
+      <c r="G39" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <v>42457</v>
       </c>
       <c r="I39" s="6"/>
-      <c r="J39" s="25" t="s">
+      <c r="J39" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="K39" s="23" t="s">
+      <c r="K39" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="L39" s="23" t="s">
+      <c r="L39" s="22" t="s">
         <v>189</v>
       </c>
       <c r="M39" s="7"/>
@@ -3784,845 +3818,868 @@
       <c r="S39" s="4"/>
     </row>
     <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="26">
+      <c r="A40" s="25">
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="23">
         <v>42459</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <v>42459</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="25" t="s">
+      <c r="I40" s="22"/>
+      <c r="J40" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="23" t="s">
+      <c r="K40" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="L40" s="23"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
       <c r="S40" s="13"/>
       <c r="T40" s="10"/>
     </row>
     <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A41" s="26">
+      <c r="A41" s="25">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="23">
         <v>42459</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="23">
         <v>42459</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="25" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="K41" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L41" s="23"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
+      <c r="R41" s="34"/>
       <c r="S41" s="13"/>
       <c r="T41" s="10"/>
     </row>
     <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="26">
+      <c r="A42" s="25">
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <v>42459</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="23">
         <v>42459</v>
       </c>
-      <c r="I42" s="23"/>
-      <c r="J42" s="25" t="s">
+      <c r="I42" s="22"/>
+      <c r="J42" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="23" t="s">
+      <c r="K42" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L42" s="23"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
       <c r="S42" s="13"/>
       <c r="T42" s="10"/>
     </row>
     <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A43" s="26">
+      <c r="A43" s="25">
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="23">
         <v>42459</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="24">
+      <c r="H43" s="23">
         <v>42459</v>
       </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="25" t="s">
+      <c r="I43" s="22"/>
+      <c r="J43" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="23" t="s">
+      <c r="K43" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="L43" s="23"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
       <c r="S43" s="13"/>
       <c r="T43" s="10"/>
     </row>
     <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="26">
+      <c r="A44" s="25">
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C44" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="23">
         <v>42459</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="24">
+      <c r="H44" s="23">
         <v>42459</v>
       </c>
-      <c r="I44" s="23"/>
-      <c r="J44" s="25" t="s">
+      <c r="I44" s="22"/>
+      <c r="J44" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="K44" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="23"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="34"/>
       <c r="S44" s="13"/>
       <c r="T44" s="10"/>
     </row>
     <row r="45" spans="1:20" s="11" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
-      <c r="A45" s="26">
+      <c r="A45" s="25">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="23">
         <v>42459</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="24">
+      <c r="H45" s="23">
         <v>42459</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="25" t="s">
+      <c r="I45" s="22"/>
+      <c r="J45" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="K45" s="23" t="s">
+      <c r="K45" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="23"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
+      <c r="R45" s="34"/>
       <c r="S45" s="13"/>
       <c r="T45" s="10"/>
     </row>
     <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="26">
+      <c r="A46" s="25">
         <v>45</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="23">
         <v>42459</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H46" s="24">
+      <c r="H46" s="23">
         <v>42459</v>
       </c>
-      <c r="I46" s="23"/>
-      <c r="J46" s="25" t="s">
+      <c r="I46" s="22"/>
+      <c r="J46" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K46" s="23" t="s">
+      <c r="K46" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="23"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34"/>
       <c r="S46" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T46" s="10"/>
     </row>
     <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="26">
+      <c r="A47" s="25">
         <v>46</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="24">
+      <c r="F47" s="23">
         <v>42459</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="24">
+      <c r="H47" s="23">
         <v>42459</v>
       </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="25" t="s">
+      <c r="I47" s="22"/>
+      <c r="J47" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K47" s="23" t="s">
+      <c r="K47" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L47" s="23"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="34"/>
       <c r="S47" s="13"/>
       <c r="T47" s="10"/>
     </row>
     <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="26">
+      <c r="A48" s="25">
         <v>47</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="23">
         <v>42459</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="23">
         <v>42459</v>
       </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="25" t="s">
+      <c r="I48" s="22"/>
+      <c r="J48" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="K48" s="23" t="s">
+      <c r="K48" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L48" s="23"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
+      <c r="R48" s="34"/>
       <c r="S48" s="13"/>
       <c r="T48" s="10"/>
     </row>
     <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="26">
+      <c r="A49" s="25">
         <v>48</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="23">
         <v>42459</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="23">
         <v>42459</v>
       </c>
-      <c r="I49" s="23"/>
-      <c r="J49" s="25" t="s">
+      <c r="I49" s="22"/>
+      <c r="J49" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K49" s="23" t="s">
+      <c r="K49" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="23"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
+      <c r="R49" s="34"/>
       <c r="S49" s="13"/>
       <c r="T49" s="10"/>
     </row>
     <row r="50" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
-      <c r="A50" s="26">
+      <c r="A50" s="25">
         <v>49</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F50" s="24">
+      <c r="F50" s="23">
         <v>42459</v>
       </c>
-      <c r="G50" s="24" t="s">
+      <c r="G50" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="24">
+      <c r="H50" s="23">
         <v>42459</v>
       </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="25" t="s">
+      <c r="I50" s="22"/>
+      <c r="J50" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="K50" s="23" t="s">
+      <c r="K50" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="L50" s="23"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="25"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
       <c r="S50" s="13"/>
       <c r="T50" s="10"/>
     </row>
     <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="26">
+      <c r="A51" s="25">
         <v>50</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="23">
         <v>42459</v>
       </c>
-      <c r="G51" s="24" t="s">
+      <c r="G51" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="23">
         <v>42459</v>
       </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="25" t="s">
+      <c r="I51" s="22"/>
+      <c r="J51" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="K51" s="23" t="s">
+      <c r="K51" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="L51" s="23"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
       <c r="S51" s="13"/>
       <c r="T51" s="10"/>
     </row>
     <row r="52" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="26">
+      <c r="A52" s="25">
         <v>51</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C52" s="23" t="s">
+      <c r="C52" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E52" s="23" t="s">
+      <c r="E52" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="23">
         <v>42459</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="24">
+      <c r="H52" s="23">
         <v>42459</v>
       </c>
-      <c r="I52" s="23"/>
-      <c r="J52" s="25" t="s">
+      <c r="I52" s="22"/>
+      <c r="J52" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K52" s="23" t="s">
+      <c r="K52" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="L52" s="23"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
       <c r="S52" s="13"/>
       <c r="T52" s="10"/>
     </row>
-    <row r="53" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="26">
+    <row r="53" spans="1:20" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E53" s="37" t="s">
+      <c r="E53" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="37">
         <v>42459</v>
       </c>
-      <c r="G53" s="38" t="s">
+      <c r="G53" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="37">
         <v>42459</v>
       </c>
-      <c r="I53" s="37"/>
-      <c r="J53" s="25" t="s">
+      <c r="I53" s="36"/>
+      <c r="J53" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="K53" s="37" t="s">
+      <c r="K53" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L53" s="37"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="41"/>
-      <c r="T53" s="42"/>
-    </row>
-    <row r="54" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="26">
+      <c r="L53" s="36"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="38"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="41"/>
+    </row>
+    <row r="54" spans="1:20" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="37">
         <v>42459</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="37">
         <v>42459</v>
       </c>
-      <c r="I54" s="37"/>
-      <c r="J54" s="39" t="s">
+      <c r="I54" s="36"/>
+      <c r="J54" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="K54" s="37" t="s">
+      <c r="K54" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L54" s="37"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="39"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="42"/>
-    </row>
-    <row r="55" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="26">
+      <c r="L54" s="36"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="38"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="41"/>
+    </row>
+    <row r="55" spans="1:20" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="36" t="s">
+      <c r="B55" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="37">
         <v>42459</v>
       </c>
-      <c r="G55" s="38" t="s">
+      <c r="G55" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="37">
         <v>42459</v>
       </c>
-      <c r="I55" s="37"/>
-      <c r="J55" s="39" t="s">
+      <c r="I55" s="36"/>
+      <c r="J55" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="K55" s="37" t="s">
+      <c r="K55" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L55" s="37"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="39"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="41"/>
-      <c r="T55" s="42"/>
-    </row>
-    <row r="56" spans="1:20" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="26">
+      <c r="L55" s="36"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="38"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="41"/>
+    </row>
+    <row r="56" spans="1:20" s="42" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B56" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="37" t="s">
+      <c r="D56" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="37">
         <v>42459</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="38">
+      <c r="H56" s="37">
         <v>42459</v>
       </c>
-      <c r="I56" s="37"/>
-      <c r="J56" s="39" t="s">
+      <c r="I56" s="36"/>
+      <c r="J56" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="K56" s="37" t="s">
+      <c r="K56" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="L56" s="37"/>
-      <c r="M56" s="39"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="39"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="42"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="38"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="38"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="41"/>
     </row>
     <row r="57" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="26">
+      <c r="A57" s="25">
         <v>56</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E57" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="23">
         <v>42447</v>
       </c>
-      <c r="G57" s="24" t="s">
+      <c r="G57" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="23">
         <v>42447</v>
       </c>
-      <c r="I57" s="23"/>
-      <c r="J57" s="25" t="s">
+      <c r="I57" s="22"/>
+      <c r="J57" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="K57" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="L57" s="25" t="s">
+      <c r="L57" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="M57" s="25" t="s">
+      <c r="M57" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="N57" s="24" t="s">
+      <c r="N57" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="O57" s="25" t="s">
+      <c r="O57" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="44"/>
+      <c r="P57" s="34"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="43"/>
       <c r="S57" s="13"/>
       <c r="T57" s="10"/>
     </row>
     <row r="58" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="26">
+      <c r="A58" s="25">
         <v>57</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <v>42447</v>
       </c>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="24">
+      <c r="H58" s="23">
         <v>42447</v>
       </c>
-      <c r="I58" s="23"/>
-      <c r="J58" s="25" t="s">
+      <c r="I58" s="22"/>
+      <c r="J58" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="K58" s="23" t="s">
+      <c r="K58" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="L58" s="25" t="s">
+      <c r="L58" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="M58" s="25" t="s">
+      <c r="M58" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="N58" s="24" t="s">
+      <c r="N58" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="O58" s="25" t="s">
+      <c r="O58" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="44"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="43"/>
       <c r="S58" s="13"/>
       <c r="T58" s="10"/>
     </row>
-    <row r="59" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="26"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="5"/>
+    <row r="59" spans="1:20" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="44">
+        <v>42457</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="44">
+        <v>42465</v>
+      </c>
       <c r="I59" s="6"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
+      <c r="J59" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K59" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="30" t="s">
+        <v>126</v>
+      </c>
       <c r="M59" s="7"/>
       <c r="N59" s="5"/>
       <c r="O59" s="4"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
+      <c r="R59" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="S59" s="4"/>
-      <c r="T59" s="10"/>
     </row>
     <row r="60" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="26"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
       <c r="D60" s="12"/>
@@ -4644,7 +4701,7 @@
       <c r="T60" s="10"/>
     </row>
     <row r="61" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A61" s="26"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
       <c r="D61" s="12"/>
@@ -4666,7 +4723,7 @@
       <c r="T61" s="10"/>
     </row>
     <row r="62" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A62" s="26"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
       <c r="D62" s="12"/>
@@ -4688,7 +4745,7 @@
       <c r="T62" s="10"/>
     </row>
     <row r="63" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="26"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
       <c r="D63" s="12"/>
@@ -4710,7 +4767,7 @@
       <c r="T63" s="10"/>
     </row>
     <row r="64" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="26"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
       <c r="D64" s="12"/>
@@ -4732,7 +4789,7 @@
       <c r="T64" s="10"/>
     </row>
     <row r="65" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="26"/>
+      <c r="A65" s="25"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
       <c r="D65" s="12"/>
@@ -4754,7 +4811,7 @@
       <c r="T65" s="10"/>
     </row>
     <row r="66" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A66" s="26"/>
+      <c r="A66" s="25"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
       <c r="D66" s="12"/>
@@ -7710,8 +7767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7751,21 +7808,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="21">
+        <v>58</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="45">
+        <v>42467</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="18"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="18"/>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
